--- a/서울특별시 공공자전거 데이터/서울특별시 공공자전거 대여소 정보(19.12.9).xlsx
+++ b/서울특별시 공공자전거 데이터/서울특별시 공공자전거 대여소 정보(19.12.9).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vandy_Drive\Github\randy-seoul-bike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vandy_Drive\Github\randy-seoul-bike\서울특별시 공공자전거 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D443E-E116-4E48-A46E-ED28778B72F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA38897-6A84-4B92-9BF5-27B5BB1F5209}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="507" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11535,7 +11535,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$2" spid="_x0000_s40373"/>
+                  <a14:cameraTool cellRange="$D$2" spid="_x0000_s40423"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11601,7 +11601,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$3" spid="_x0000_s40374"/>
+                  <a14:cameraTool cellRange="$D$3" spid="_x0000_s40424"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11667,7 +11667,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$4" spid="_x0000_s40375"/>
+                  <a14:cameraTool cellRange="$D$4" spid="_x0000_s40425"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11733,7 +11733,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$5" spid="_x0000_s40376"/>
+                  <a14:cameraTool cellRange="$D$5" spid="_x0000_s40426"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11799,7 +11799,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$6" spid="_x0000_s40377"/>
+                  <a14:cameraTool cellRange="$D$6" spid="_x0000_s40427"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11865,7 +11865,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$7" spid="_x0000_s40378"/>
+                  <a14:cameraTool cellRange="$D$7" spid="_x0000_s40428"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11931,7 +11931,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$8" spid="_x0000_s40379"/>
+                  <a14:cameraTool cellRange="$D$8" spid="_x0000_s40429"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11997,7 +11997,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$9" spid="_x0000_s40380"/>
+                  <a14:cameraTool cellRange="$D$9" spid="_x0000_s40430"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12063,7 +12063,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$10" spid="_x0000_s40381"/>
+                  <a14:cameraTool cellRange="$D$10" spid="_x0000_s40431"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12129,7 +12129,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$11" spid="_x0000_s40382"/>
+                  <a14:cameraTool cellRange="$D$11" spid="_x0000_s40432"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12195,7 +12195,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$12" spid="_x0000_s40383"/>
+                  <a14:cameraTool cellRange="$D$12" spid="_x0000_s40433"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12261,7 +12261,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$13" spid="_x0000_s40384"/>
+                  <a14:cameraTool cellRange="$D$13" spid="_x0000_s40434"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12327,7 +12327,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$14" spid="_x0000_s40385"/>
+                  <a14:cameraTool cellRange="$D$14" spid="_x0000_s40435"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12393,7 +12393,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$15" spid="_x0000_s40386"/>
+                  <a14:cameraTool cellRange="$D$15" spid="_x0000_s40436"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12459,7 +12459,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$16" spid="_x0000_s40387"/>
+                  <a14:cameraTool cellRange="$D$16" spid="_x0000_s40437"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12525,7 +12525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$17" spid="_x0000_s40388"/>
+                  <a14:cameraTool cellRange="$D$17" spid="_x0000_s40438"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12591,7 +12591,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$18" spid="_x0000_s40389"/>
+                  <a14:cameraTool cellRange="$D$18" spid="_x0000_s40439"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12657,7 +12657,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$20" spid="_x0000_s40390"/>
+                  <a14:cameraTool cellRange="$D$20" spid="_x0000_s40440"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12723,7 +12723,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$21" spid="_x0000_s40391"/>
+                  <a14:cameraTool cellRange="$D$21" spid="_x0000_s40441"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12789,7 +12789,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$22" spid="_x0000_s40392"/>
+                  <a14:cameraTool cellRange="$D$22" spid="_x0000_s40442"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12855,7 +12855,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$23" spid="_x0000_s40393"/>
+                  <a14:cameraTool cellRange="$D$23" spid="_x0000_s40443"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12921,7 +12921,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$24" spid="_x0000_s40394"/>
+                  <a14:cameraTool cellRange="$D$24" spid="_x0000_s40444"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12987,7 +12987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$25" spid="_x0000_s40395"/>
+                  <a14:cameraTool cellRange="$D$25" spid="_x0000_s40445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13053,7 +13053,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$26" spid="_x0000_s40396"/>
+                  <a14:cameraTool cellRange="$D$26" spid="_x0000_s40446"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13119,7 +13119,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$19" spid="_x0000_s40397"/>
+                  <a14:cameraTool cellRange="$D$19" spid="_x0000_s40447"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13185,7 +13185,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2" spid="_x0000_s40398"/>
+                  <a14:cameraTool cellRange="$C$2" spid="_x0000_s40448"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13251,7 +13251,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$3" spid="_x0000_s40399"/>
+                  <a14:cameraTool cellRange="$C$3" spid="_x0000_s40449"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13317,7 +13317,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$4" spid="_x0000_s40400"/>
+                  <a14:cameraTool cellRange="$C$4" spid="_x0000_s40450"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13383,7 +13383,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$5" spid="_x0000_s40401"/>
+                  <a14:cameraTool cellRange="$C$5" spid="_x0000_s40451"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13449,7 +13449,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$6" spid="_x0000_s40402"/>
+                  <a14:cameraTool cellRange="$C$6" spid="_x0000_s40452"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13515,7 +13515,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$7" spid="_x0000_s40403"/>
+                  <a14:cameraTool cellRange="$C$7" spid="_x0000_s40453"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13581,7 +13581,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$8" spid="_x0000_s40404"/>
+                  <a14:cameraTool cellRange="$C$8" spid="_x0000_s40454"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13647,7 +13647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$9" spid="_x0000_s40405"/>
+                  <a14:cameraTool cellRange="$C$9" spid="_x0000_s40455"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13713,7 +13713,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$10" spid="_x0000_s40406"/>
+                  <a14:cameraTool cellRange="$C$10" spid="_x0000_s40456"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13779,7 +13779,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$11" spid="_x0000_s40407"/>
+                  <a14:cameraTool cellRange="$C$11" spid="_x0000_s40457"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13845,7 +13845,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12" spid="_x0000_s40408"/>
+                  <a14:cameraTool cellRange="$C$12" spid="_x0000_s40458"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13911,7 +13911,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$13" spid="_x0000_s40409"/>
+                  <a14:cameraTool cellRange="$C$13" spid="_x0000_s40459"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13977,7 +13977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$14" spid="_x0000_s40410"/>
+                  <a14:cameraTool cellRange="$C$14" spid="_x0000_s40460"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14043,7 +14043,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$15" spid="_x0000_s40411"/>
+                  <a14:cameraTool cellRange="$C$15" spid="_x0000_s40461"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14109,7 +14109,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$16" spid="_x0000_s40412"/>
+                  <a14:cameraTool cellRange="$C$16" spid="_x0000_s40462"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14175,7 +14175,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$17" spid="_x0000_s40413"/>
+                  <a14:cameraTool cellRange="$C$17" spid="_x0000_s40463"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14241,7 +14241,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$18" spid="_x0000_s40414"/>
+                  <a14:cameraTool cellRange="$C$18" spid="_x0000_s40464"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14307,7 +14307,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$19" spid="_x0000_s40415"/>
+                  <a14:cameraTool cellRange="$C$19" spid="_x0000_s40465"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14373,7 +14373,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$20" spid="_x0000_s40416"/>
+                  <a14:cameraTool cellRange="$C$20" spid="_x0000_s40466"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14439,7 +14439,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$21" spid="_x0000_s40417"/>
+                  <a14:cameraTool cellRange="$C$21" spid="_x0000_s40467"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14505,7 +14505,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$22" spid="_x0000_s40418"/>
+                  <a14:cameraTool cellRange="$C$22" spid="_x0000_s40468"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14571,7 +14571,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$23" spid="_x0000_s40419"/>
+                  <a14:cameraTool cellRange="$C$23" spid="_x0000_s40469"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14637,7 +14637,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$24" spid="_x0000_s40420"/>
+                  <a14:cameraTool cellRange="$C$24" spid="_x0000_s40470"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14703,7 +14703,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$25" spid="_x0000_s40421"/>
+                  <a14:cameraTool cellRange="$C$25" spid="_x0000_s40471"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14769,7 +14769,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$26" spid="_x0000_s40422"/>
+                  <a14:cameraTool cellRange="$C$26" spid="_x0000_s40472"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15077,7 +15077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
